--- a/data/sentiment/NAAIM Exposure Index.xlsx
+++ b/data/sentiment/NAAIM Exposure Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF33A2C-9B50-4F1C-B4E3-84F6716DADF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38CBC25-CD20-4738-AA24-271CA702D929}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16155" yWindow="780" windowWidth="19845" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -587,7 +587,7 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -595,38 +595,38 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -986,13 +986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1022"/>
+  <dimension ref="A1:K1023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="L1000" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="M1003" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1035" sqref="L1035"/>
+      <selection pane="bottomRight" activeCell="D1036" sqref="D1036"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30658,6 +30658,35 @@
         <v>50.37</v>
       </c>
     </row>
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1023" s="15">
+        <v>46043</v>
+      </c>
+      <c r="B1023" s="15">
+        <v>46044</v>
+      </c>
+      <c r="E1023" s="7">
+        <v>88.46</v>
+      </c>
+      <c r="F1023" s="8">
+        <v>-200</v>
+      </c>
+      <c r="G1023" s="7">
+        <v>90</v>
+      </c>
+      <c r="H1023" s="9">
+        <v>100</v>
+      </c>
+      <c r="I1023" s="9">
+        <v>100</v>
+      </c>
+      <c r="J1023" s="9">
+        <v>200</v>
+      </c>
+      <c r="K1023" s="7">
+        <v>60.31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30670,7 +30699,7 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/sentiment/NAAIM Exposure Index.xlsx
+++ b/data/sentiment/NAAIM Exposure Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38CBC25-CD20-4738-AA24-271CA702D929}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA3F181-525D-4447-B3E5-37DCC6A38CE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16155" yWindow="780" windowWidth="19845" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,13 +986,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1023"/>
+  <dimension ref="A1:K1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="11" ySplit="4" topLeftCell="M1003" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="4" topLeftCell="L1006" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D1036" sqref="D1036"/>
+      <selection pane="bottomRight" activeCell="L1031" sqref="L1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30687,6 +30687,72 @@
         <v>60.31</v>
       </c>
     </row>
+    <row r="1024" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1024" s="15">
+        <v>46050</v>
+      </c>
+      <c r="B1024" s="15">
+        <v>46051</v>
+      </c>
+      <c r="E1024" s="7">
+        <v>92.58</v>
+      </c>
+      <c r="F1024" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1024" s="7">
+        <v>80</v>
+      </c>
+      <c r="H1024" s="9">
+        <v>100</v>
+      </c>
+      <c r="I1024" s="9">
+        <v>100</v>
+      </c>
+      <c r="J1024" s="9">
+        <v>200</v>
+      </c>
+      <c r="K1024" s="7">
+        <v>46.41</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1025" s="15">
+        <v>46057</v>
+      </c>
+      <c r="B1025" s="15">
+        <v>46058</v>
+      </c>
+      <c r="E1025" s="7">
+        <v>84.93</v>
+      </c>
+      <c r="F1025" s="8">
+        <v>-200</v>
+      </c>
+      <c r="G1025" s="7">
+        <v>80</v>
+      </c>
+      <c r="H1025" s="9">
+        <v>99</v>
+      </c>
+      <c r="I1025" s="9">
+        <v>100</v>
+      </c>
+      <c r="J1025" s="9">
+        <v>200</v>
+      </c>
+      <c r="K1025" s="7">
+        <v>64.569999999999993</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1026" s="15">
+        <v>46064</v>
+      </c>
+      <c r="B1026" s="15">
+        <v>46065</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30699,7 +30765,7 @@
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/sentiment/NAAIM Exposure Index.xlsx
+++ b/data/sentiment/NAAIM Exposure Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA3F181-525D-4447-B3E5-37DCC6A38CE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7813B18A-4ECA-493E-923B-9F2BC149A32A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16155" yWindow="780" windowWidth="19845" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
       <pane xSplit="11" ySplit="4" topLeftCell="L1006" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1031" sqref="L1031"/>
+      <selection pane="bottomRight" activeCell="K1031" sqref="K1031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30752,6 +30752,27 @@
       <c r="B1026" s="15">
         <v>46065</v>
       </c>
+      <c r="E1026" s="7">
+        <v>80.61</v>
+      </c>
+      <c r="F1026" s="8">
+        <v>-200</v>
+      </c>
+      <c r="G1026" s="7">
+        <v>80</v>
+      </c>
+      <c r="H1026" s="9">
+        <v>100</v>
+      </c>
+      <c r="I1026" s="9">
+        <v>100</v>
+      </c>
+      <c r="J1026" s="9">
+        <v>200</v>
+      </c>
+      <c r="K1026" s="7">
+        <v>63.52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
